--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="2796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="2798">
   <si>
     <t xml:space="preserve">URLs</t>
   </si>
@@ -28,15 +28,15 @@
     <t xml:space="preserve">https://store.dji.com/nl/insurance-info</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/countries</t>
   </si>
   <si>
     <t xml:space="preserve">https://store.dji.com/nl/upgrade</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product-search</t>
   </si>
   <si>
@@ -178,6 +178,9 @@
     <t xml:space="preserve">https://store.dji.com/nl/list/education-and-industry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/selection/goggles-2-vs-goggles-integra</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/content/fpv-drones</t>
   </si>
   <si>
@@ -286,6 +289,9 @@
     <t xml:space="preserve">https://store.dji.com/nl/list/handheld</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/content/dji-mic-2-compatibility</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/category/m300</t>
   </si>
   <si>
@@ -823,12 +829,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/matrice-30-intelligent-battery-station</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/dji-rc-refurbished-unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/osmo-action-gps-bluetooth-remote-controller</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/dji-rc-refurbished-unit</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/zenmuse-x5-gimbal-camera-lens-excluded</t>
   </si>
   <si>
@@ -1936,12 +1942,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/t30-care-plan-plus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/t16-black-propeller-washers</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/osmo-mobile-6-vlog-combo</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/t16-black-propeller-washers</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/event/2023-spring-flash-promotion</t>
   </si>
   <si>
@@ -2080,12 +2086,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/lightbridge-2-sdi-cable-holder</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/matrice-600</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-care-refresh-dji-mavic-3-classic</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/matrice-600</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/inspire-2-cinessd-240g</t>
   </si>
   <si>
@@ -3514,12 +3520,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/t16-landing-gear-leg-tubes</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/event/jan-sale-2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/osmo-action-nd-filter-kit-new</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/event/jan-sale-2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/matrice-100-guidance-connector-kit</t>
   </si>
   <si>
@@ -4309,12 +4315,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/extended-port-cover</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/lexar-64g-sd-card</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/osmo-action-4</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/lexar-64g-sd-card</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/9450-plastic-hub-props-red</t>
   </si>
   <si>
@@ -4660,24 +4666,24 @@
     <t xml:space="preserve">https://store.dji.com/nl/pages/education</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/inspire-1-v2-pro-aircraft-excludes-remote-controller-camera-battery-charger</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-ronin-4d-hand-grips-combo</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/inspire-1-v2-pro-aircraft-excludes-remote-controller-camera-battery-charger</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-ocusync-air-system</t>
   </si>
   <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/pelican-mavic-protector-case</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/phantom-4-uv-filter</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/phantom-4-cable-set</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/phantom-4-uv-filter</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/phantom-4-with-two-extra-batteries-and-phantom-backpack</t>
   </si>
   <si>
@@ -5032,12 +5038,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-high-bright-remote-monitor</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/dji-care-enterprise-plus-renew-m30</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-lidar-range-finder-rs</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/dji-care-enterprise-plus-renew-m30</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/5-8g-radio-controller</t>
   </si>
   <si>
@@ -5224,12 +5230,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/ronin-mx-rss-power-cable</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/zenmuse-l1-and-dji-care</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-action-2-magnetic-headband</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/zenmuse-l1-and-dji-care</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-care-refresh-2-year-dji-mini-2-se</t>
   </si>
   <si>
@@ -5308,12 +5314,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/9450-carbon-fiber-self-tightening-rotor-black-yellow-stripes</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/plant-protection-machinery-pilot-training</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/pesticides-jinerjiasheng</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/plant-protection-machinery-pilot-training</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/r-quick-release-plate-lower</t>
   </si>
   <si>
@@ -5797,12 +5803,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-goggles-racing-edition-mono-3-5mm-jack-plug-cable</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/drobots-iphone-case</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/focus-data-cable-2m</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/drobots-iphone-case</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/phantom-4-two-extra-batteries-phantom-backpack-battery-charging-hub</t>
   </si>
   <si>
@@ -6007,12 +6013,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/m2ea-rtk-module-and-dji-care-plus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/dji-mavic-3-battery-charging-hub</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/mavic-air-onyx-black-for-rakuten</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/dji-mavic-3-battery-charging-hub</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-care-enterprise-plus-renew-m300-rtk</t>
   </si>
   <si>
@@ -6265,18 +6271,18 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/sling-pouch</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/pages/quickguide-mavicair</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/mavic-2-zoom-aircraft</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/pages/quickguide-mavicair</t>
+    <t xml:space="preserve">https://store.dji.com/nl/product/osmo-mobile-tripod-extension-rod</t>
   </si>
   <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/mavic-air-with-free-training</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/osmo-mobile-tripod-extension-rod</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/ronin-s-external-gps-module</t>
   </si>
   <si>
@@ -6391,12 +6397,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/inspire-1345-props</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/naza-m-lite-excludes-gps</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/robomaster-education-expansion-set</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/naza-m-lite-excludes-gps</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/focus-magazine-july-2017</t>
   </si>
   <si>
@@ -6643,12 +6649,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/ronin-2-thumb-controller</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/phantom-4-mobile-device-holder</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-air-3-propeller-guard</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/phantom-4-mobile-device-holder</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-rs-3-refurbished-unit</t>
   </si>
   <si>
@@ -7372,12 +7378,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-mic</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/zenmuse-z15-a7-damping-unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/ronin-m-focus</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/zenmuse-z15-a7-damping-unit</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-fpv-air-unit-module</t>
   </si>
   <si>
@@ -7402,12 +7408,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/mg-1s-spray-tank</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/hasselblad-x1d-black</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/ronin-2-can-bus-cable</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/hasselblad-x1d-black</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-care-enterprise-plus-p1</t>
   </si>
   <si>
@@ -7639,12 +7645,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/dji-remote-controller-mounting-screws</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/dji-focus-handwheel-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/s900-complete-arm-ccw-green</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/dji-focus-handwheel-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/focus-magazine-mar-2017</t>
   </si>
   <si>
@@ -7672,12 +7678,12 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/ronin-sc-camera-riser</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/m2ea-rtk-module</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/polarpro-spark-case-mini</t>
   </si>
   <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/m2ea-rtk-module</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/focus-magazine-august-2017</t>
   </si>
   <si>
@@ -8053,10 +8059,10 @@
     <t xml:space="preserve">https://store.dji.com/nl/product/master-wheels-2-axis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store.dji.com/nl/product/osmo-phone-holder</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/zenmuse-x7-dl-50mm-ls-lens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://store.dji.com/nl/product/osmo-phone-holder</t>
   </si>
   <si>
     <t xml:space="preserve">https://store.dji.com/nl/product/mg-1s-advanced-care-plan-renew</t>
@@ -8523,10 +8529,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2795"/>
+  <dimension ref="A1:B2797"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8543,17 +8549,17 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -22510,6 +22516,16 @@
     <row r="2795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2795" s="0" t="s">
         <v>2795</v>
+      </c>
+    </row>
+    <row r="2796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2796" s="0" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="2797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2797" s="0" t="s">
+        <v>2797</v>
       </c>
     </row>
   </sheetData>
